--- a/List of Fields in STARS.xlsx
+++ b/List of Fields in STARS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\DataCleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F3EB4-47B2-41AA-B3C3-A1512A0540F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3E1977-2DE9-4221-A6EB-025761CD9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
   <si>
     <t>Field Nmae</t>
   </si>
@@ -141,6 +141,81 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Client diasabled</t>
+  </si>
+  <si>
+    <t>Lives With</t>
+  </si>
+  <si>
+    <t>Does not speak english</t>
+  </si>
+  <si>
+    <t>Primary Language</t>
+  </si>
+  <si>
+    <t>Special needs</t>
+  </si>
+  <si>
+    <t>List Select</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Oxygen dependent</t>
+  </si>
+  <si>
+    <t>Insulin Dependent</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>Community Emergeny high risk</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bar Code ID</t>
+  </si>
+  <si>
+    <t>Bar code ID</t>
+  </si>
+  <si>
+    <t>Poverty level</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Low Income minority</t>
+  </si>
+  <si>
+    <t>Monthly Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Household </t>
+  </si>
+  <si>
+    <t>Income Range</t>
+  </si>
+  <si>
+    <t>Financial comments</t>
+  </si>
+  <si>
+    <t>Special Communication needs</t>
+  </si>
+  <si>
+    <t>Lives in an elevator building</t>
   </si>
 </sst>
 </file>
@@ -227,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -238,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D824E0-CCD4-4763-96B5-C7D2CDE0B8CA}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -566,8 +641,8 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -578,15 +653,15 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -602,8 +677,8 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -618,7 +693,7 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -626,13 +701,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -640,10 +718,13 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -651,6 +732,9 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -660,10 +744,10 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -671,16 +755,19 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -688,10 +775,13 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -699,15 +789,21 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -715,16 +811,19 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -732,7 +831,10 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -740,15 +842,30 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -756,38 +873,59 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -797,11 +935,11 @@
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -811,8 +949,318 @@
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/List of Fields in STARS.xlsx
+++ b/List of Fields in STARS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3E1977-2DE9-4221-A6EB-025761CD9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58D96D-C4EC-4768-B66A-68B35E56BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>Field Nmae</t>
   </si>
@@ -216,6 +216,69 @@
   </si>
   <si>
     <t>Lives in an elevator building</t>
+  </si>
+  <si>
+    <t>Sources of errors</t>
+  </si>
+  <si>
+    <t>Typo/refused to give</t>
+  </si>
+  <si>
+    <t>Typo/refused to give/outdated information</t>
+  </si>
+  <si>
+    <t>Given incorrect information</t>
+  </si>
+  <si>
+    <t>Refusd to give</t>
+  </si>
+  <si>
+    <t>Refusd to give/chose incorrect option</t>
+  </si>
+  <si>
+    <t>Given incorrect information/error in selection</t>
+  </si>
+  <si>
+    <t>error in selection/forgot to fillout</t>
+  </si>
+  <si>
+    <t>error in selection/forgot to fillout/wrong information</t>
+  </si>
+  <si>
+    <t>Refused to provide/wrong selection</t>
+  </si>
+  <si>
+    <t>Wrong selection</t>
+  </si>
+  <si>
+    <t>Wrong selection/did not answer</t>
+  </si>
+  <si>
+    <t>Typo/did not answer</t>
+  </si>
+  <si>
+    <t>Refused to answer/wrong selection</t>
+  </si>
+  <si>
+    <t>Incorrect selection</t>
+  </si>
+  <si>
+    <t>Refused to give/typo/wrong information</t>
+  </si>
+  <si>
+    <t>Refused to give/wrong information</t>
+  </si>
+  <si>
+    <t>refused to give</t>
+  </si>
+  <si>
+    <t>typo</t>
+  </si>
+  <si>
+    <t>Refused to provide/Did not fiill out</t>
+  </si>
+  <si>
+    <t>Refusd to give/Did not fill out</t>
   </si>
 </sst>
 </file>
@@ -292,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D824E0-CCD4-4763-96B5-C7D2CDE0B8CA}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -643,10 +709,11 @@
     <col min="3" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,8 +731,11 @@
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -679,8 +749,9 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -696,8 +767,11 @@
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -713,8 +787,11 @@
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -727,8 +804,11 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -750,8 +830,11 @@
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -770,8 +853,11 @@
       <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -784,16 +870,22 @@
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -806,8 +898,11 @@
       <c r="F11" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -826,8 +921,11 @@
       <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -837,8 +935,11 @@
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -851,8 +952,11 @@
       <c r="G14" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -868,8 +972,11 @@
       <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -882,8 +989,11 @@
       <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -896,8 +1006,11 @@
       <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -910,8 +1023,11 @@
       <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -924,8 +1040,11 @@
       <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -938,8 +1057,11 @@
       <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -952,8 +1074,11 @@
       <c r="F21" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -966,8 +1091,11 @@
       <c r="F22" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -983,8 +1111,11 @@
       <c r="F23" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1000,8 +1131,11 @@
       <c r="G24" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1011,8 +1145,11 @@
       <c r="F25" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1031,8 +1168,11 @@
       <c r="G26" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1048,8 +1188,11 @@
       <c r="G27" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1065,8 +1208,11 @@
       <c r="F28" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1082,8 +1228,11 @@
       <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1099,8 +1248,11 @@
       <c r="G30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1116,8 +1268,11 @@
       <c r="G31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1133,8 +1288,11 @@
       <c r="G32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1144,8 +1302,11 @@
       <c r="F33" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1161,8 +1322,11 @@
       <c r="F34" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1175,8 +1339,11 @@
       <c r="F35" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1192,8 +1359,11 @@
       <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1203,8 +1373,11 @@
       <c r="F37" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1220,8 +1393,11 @@
       <c r="F38" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1234,8 +1410,11 @@
       <c r="F39" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1251,8 +1430,11 @@
       <c r="F40" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1261,6 +1443,9 @@
       </c>
       <c r="F41" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/List of Fields in STARS.xlsx
+++ b/List of Fields in STARS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B58D96D-C4EC-4768-B66A-68B35E56BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB5902E-0DEE-47E8-B900-6728E29B2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="67">
   <si>
     <t>Field Nmae</t>
   </si>
@@ -191,15 +191,9 @@
     <t>Bar code ID</t>
   </si>
   <si>
-    <t>Poverty level</t>
-  </si>
-  <si>
     <t>Financial</t>
   </si>
   <si>
-    <t>Low Income minority</t>
-  </si>
-  <si>
     <t>Monthly Income</t>
   </si>
   <si>
@@ -209,76 +203,40 @@
     <t>Income Range</t>
   </si>
   <si>
-    <t>Financial comments</t>
-  </si>
-  <si>
     <t>Special Communication needs</t>
   </si>
   <si>
     <t>Lives in an elevator building</t>
   </si>
   <si>
-    <t>Sources of errors</t>
-  </si>
-  <si>
-    <t>Typo/refused to give</t>
-  </si>
-  <si>
-    <t>Typo/refused to give/outdated information</t>
-  </si>
-  <si>
-    <t>Given incorrect information</t>
-  </si>
-  <si>
-    <t>Refusd to give</t>
-  </si>
-  <si>
-    <t>Refusd to give/chose incorrect option</t>
-  </si>
-  <si>
-    <t>Given incorrect information/error in selection</t>
-  </si>
-  <si>
-    <t>error in selection/forgot to fillout</t>
-  </si>
-  <si>
-    <t>error in selection/forgot to fillout/wrong information</t>
-  </si>
-  <si>
-    <t>Refused to provide/wrong selection</t>
-  </si>
-  <si>
-    <t>Wrong selection</t>
-  </si>
-  <si>
-    <t>Wrong selection/did not answer</t>
-  </si>
-  <si>
-    <t>Typo/did not answer</t>
-  </si>
-  <si>
-    <t>Refused to answer/wrong selection</t>
-  </si>
-  <si>
-    <t>Incorrect selection</t>
-  </si>
-  <si>
-    <t>Refused to give/typo/wrong information</t>
-  </si>
-  <si>
-    <t>Refused to give/wrong information</t>
-  </si>
-  <si>
-    <t>refused to give</t>
-  </si>
-  <si>
-    <t>typo</t>
-  </si>
-  <si>
-    <t>Refused to provide/Did not fiill out</t>
-  </si>
-  <si>
-    <t>Refusd to give/Did not fill out</t>
+    <t># Manual Input</t>
+  </si>
+  <si>
+    <t>Sources Of Error</t>
+  </si>
+  <si>
+    <t>Typo</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>No answer</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Best Entry Method</t>
+  </si>
+  <si>
+    <t>Check Check</t>
+  </si>
+  <si>
+    <t>Check List</t>
   </si>
 </sst>
 </file>
@@ -355,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,24 +651,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D824E0-CCD4-4763-96B5-C7D2CDE0B8CA}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,11 +689,19 @@
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -749,9 +715,25 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -768,10 +750,19 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -788,10 +779,19 @@
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -804,11 +804,23 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -831,10 +843,22 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -854,10 +878,22 @@
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -871,10 +907,22 @@
         <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -882,10 +930,25 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -899,10 +962,25 @@
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -922,10 +1000,25 @@
         <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -935,11 +1028,23 @@
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -950,13 +1055,25 @@
         <v>29</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -973,10 +1090,23 @@
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -990,10 +1120,23 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1007,10 +1150,23 @@
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1023,11 +1179,24 @@
       <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1041,10 +1210,26 @@
         <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1057,11 +1242,24 @@
       <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1074,11 +1272,21 @@
       <c r="F21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1091,11 +1299,21 @@
       <c r="F22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1111,11 +1329,21 @@
       <c r="F23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1131,11 +1359,24 @@
       <c r="G24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1145,11 +1386,24 @@
       <c r="F25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1168,11 +1422,24 @@
       <c r="G26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1186,13 +1453,26 @@
         <v>41</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1208,11 +1488,21 @@
       <c r="F28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1228,11 +1518,21 @@
       <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1248,11 +1548,24 @@
       <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1268,11 +1581,24 @@
       <c r="G31" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1288,11 +1614,24 @@
       <c r="G32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1302,11 +1641,24 @@
       <c r="F33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1322,11 +1674,21 @@
       <c r="F34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1340,16 +1702,29 @@
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,32 +1732,70 @@
         <v>15</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
@@ -1391,66 +1804,125 @@
         <v>15</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>78</v>
+      <c r="B42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>COUNTIF(F4:F38, "*Manual Input")</f>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f>COUNTIF(F4:F38, "*Button")</f>
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <f>COUNTIF(F4:F38, "*Drop Down")</f>
+        <v>8</v>
+      </c>
+      <c r="D43" s="1">
+        <f>COUNTIF(F4:F38, "*Check Mark")</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G44" s="5">
+        <f>COUNTIF(H4:H38, "*Yes")</f>
+        <v>16</v>
+      </c>
+      <c r="H44" s="5">
+        <f>COUNTIF(I4:I38, "*Yes")</f>
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <f>COUNTIF(J4:J38, "*Yes")</f>
+        <v>35</v>
+      </c>
+      <c r="J44">
+        <f>COUNTIF(K4:K38, "*Yes")</f>
+        <v>26</v>
+      </c>
+      <c r="K44" s="5">
+        <f>COUNTIF(L4:L38, "*Yes")</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List of Fields in STARS.xlsx
+++ b/List of Fields in STARS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB5902E-0DEE-47E8-B900-6728E29B2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBB4E2-5EDA-4DF8-A7C1-AB2C9F00BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
   <si>
     <t>Field Nmae</t>
   </si>
@@ -237,13 +237,16 @@
   </si>
   <si>
     <t>Check List</t>
+  </si>
+  <si>
+    <t>Need refuse to answer option?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -257,8 +260,15 @@
       <name val="Perpetua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +279,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,8 +351,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,7 +672,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -668,6 +686,7 @@
     <col min="7" max="7" width="25.33203125" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -731,7 +750,9 @@
         <v>63</v>
       </c>
       <c r="M3" s="4"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -819,9 +840,12 @@
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -858,8 +882,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -980,8 +1004,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
@@ -1073,8 +1097,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
@@ -1106,8 +1130,8 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
@@ -1227,10 +1251,12 @@
       <c r="M19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="N19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
@@ -1257,10 +1283,12 @@
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="N20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
@@ -1284,10 +1312,12 @@
       <c r="M21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="N21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
@@ -1311,10 +1341,12 @@
       <c r="M22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="N22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B23" t="s">
@@ -1341,10 +1373,12 @@
       <c r="M23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="N23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
@@ -1374,10 +1408,12 @@
       <c r="M24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="N24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
@@ -1403,8 +1439,8 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B26" t="s">
@@ -1439,8 +1475,8 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B27" t="s">
@@ -1470,7 +1506,9 @@
       <c r="M27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1500,10 +1538,12 @@
       <c r="M28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="N28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
@@ -1563,7 +1603,9 @@
       <c r="M30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1596,7 +1638,9 @@
       <c r="M31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1629,7 +1673,9 @@
       <c r="M32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1656,7 +1702,9 @@
       <c r="M33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1752,7 +1800,9 @@
       <c r="M36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1788,7 +1838,9 @@
       <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">

--- a/List of Fields in STARS.xlsx
+++ b/List of Fields in STARS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBB4E2-5EDA-4DF8-A7C1-AB2C9F00BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA46D3F-3718-40B4-8C03-6D1D7FC972C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{124C7BB5-96F6-4789-9C9C-47302ED46817}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="68">
   <si>
     <t>Field Nmae</t>
   </si>
@@ -672,7 +672,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,9 @@
       <c r="M18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
